--- a/data/08-12-2025-lookup_types-all.xlsx
+++ b/data/08-12-2025-lookup_types-all.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="605">
   <si>
     <t>Id</t>
   </si>
@@ -1800,6 +1800,42 @@
   </si>
   <si>
     <t>SM</t>
+  </si>
+  <si>
+    <t>c65050fe-1337-4866-890b-398cd9b9a4d6</t>
+  </si>
+  <si>
+    <t>MAAN EMS LOGIN</t>
+  </si>
+  <si>
+    <t>MAANEMSLOGIN</t>
+  </si>
+  <si>
+    <t>d7d6d7dd-97fe-4193-a2d7-c75b01717a9f</t>
+  </si>
+  <si>
+    <t>E-TREE</t>
+  </si>
+  <si>
+    <t>ETREE</t>
+  </si>
+  <si>
+    <t>91bd40a2-2a21-495a-ab06-33adc9871f97</t>
+  </si>
+  <si>
+    <t>E-LS</t>
+  </si>
+  <si>
+    <t>ELS</t>
+  </si>
+  <si>
+    <t>0b702768-1c37-4e55-a948-b681b18ebe75</t>
+  </si>
+  <si>
+    <t>WIFI SARBTRA</t>
+  </si>
+  <si>
+    <t>WIFISARBTRA</t>
   </si>
 </sst>
 </file>
@@ -2242,7 +2278,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K153"/>
+  <dimension ref="A1:K157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -7548,36 +7584,168 @@
       </c>
     </row>
     <row r="153" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" s="7" t="s">
+      <c r="A153" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="B153" s="8" t="s">
+      <c r="B153" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C153" s="8" t="s">
+      <c r="C153" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="D153" s="8" t="s">
+      <c r="D153" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="E153" s="8"/>
-      <c r="F153" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G153" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H153" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I153" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J153" s="9">
+      <c r="E153" s="5"/>
+      <c r="F153" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G153" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H153" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I153" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J153" s="6">
         <v>45962</v>
       </c>
-      <c r="K153" s="9">
+      <c r="K153" s="6">
         <v>45987</v>
+      </c>
+    </row>
+    <row r="154" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I154" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J154" s="3">
+        <v>45999.47523743055</v>
+      </c>
+      <c r="K154" s="3">
+        <v>45999.47523743055</v>
+      </c>
+    </row>
+    <row r="155" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G155" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H155" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I155" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J155" s="6">
+        <v>45999.47762871528</v>
+      </c>
+      <c r="K155" s="6">
+        <v>45999.47762871528</v>
+      </c>
+    </row>
+    <row r="156" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I156" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J156" s="3">
+        <v>45999.47784422454</v>
+      </c>
+      <c r="K156" s="3">
+        <v>45999.47784422454</v>
+      </c>
+    </row>
+    <row r="157" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="D157" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="E157" s="8"/>
+      <c r="F157" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G157" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H157" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I157" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J157" s="9">
+        <v>45999.49475582176</v>
+      </c>
+      <c r="K157" s="9">
+        <v>45999.49475582176</v>
       </c>
     </row>
   </sheetData>
